--- a/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_马丁组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.0.3.2 20161013\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.0.3.1新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -253,10 +258,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>growingIO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>bugfixs</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -306,6 +307,10 @@
   </si>
   <si>
     <t>张蕴熠</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>growingIO监控调整</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -725,6 +730,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,11 +745,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
     <cellStyle name="常规 3 12" xfId="4"/>
@@ -750,10 +756,9 @@
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1128,34 +1133,34 @@
   <dimension ref="A1:T179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="15" style="10" customWidth="1"/>
     <col min="4" max="4" width="18" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="11" customWidth="1"/>
-    <col min="10" max="11" width="16.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="11" customWidth="1"/>
+    <col min="10" max="11" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="10" customWidth="1"/>
     <col min="13" max="13" width="10" style="11" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="11" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="11" customWidth="1"/>
     <col min="16" max="16" width="12" style="12" customWidth="1"/>
     <col min="17" max="17" width="17" style="12" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="41.83203125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="41.875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="28">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1214,18 +1219,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>26</v>
@@ -1241,13 +1246,13 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="L2" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>62</v>
@@ -1266,40 +1271,40 @@
       </c>
       <c r="T2" s="28"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="F3" s="16">
         <v>42656</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="48">
+        <v>73</v>
+      </c>
+      <c r="H3" s="44">
         <v>42656</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="16"/>
@@ -1310,7 +1315,7 @@
       <c r="S3" s="27"/>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="17"/>
       <c r="C4" s="15"/>
@@ -1332,7 +1337,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14"/>
       <c r="B5" s="17"/>
       <c r="C5" s="15"/>
@@ -1354,7 +1359,7 @@
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="17"/>
       <c r="C6" s="15"/>
@@ -1376,7 +1381,7 @@
       <c r="S6" s="27"/>
       <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="15"/>
@@ -1398,7 +1403,7 @@
       <c r="S7" s="27"/>
       <c r="T7" s="28"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="15"/>
@@ -1420,7 +1425,7 @@
       <c r="S8" s="27"/>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="15"/>
@@ -1442,7 +1447,7 @@
       <c r="S9" s="27"/>
       <c r="T9" s="28"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="C10" s="15"/>
@@ -1464,7 +1469,7 @@
       <c r="S10" s="27"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="15"/>
@@ -1486,7 +1491,7 @@
       <c r="S11" s="27"/>
       <c r="T11" s="28"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="15"/>
@@ -1508,7 +1513,7 @@
       <c r="S12" s="27"/>
       <c r="T12" s="28"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15"/>
@@ -1530,7 +1535,7 @@
       <c r="S13" s="27"/>
       <c r="T13" s="28"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="15"/>
@@ -1552,7 +1557,7 @@
       <c r="S14" s="27"/>
       <c r="T14" s="28"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="15"/>
@@ -1574,7 +1579,7 @@
       <c r="S15" s="27"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
@@ -1596,7 +1601,7 @@
       <c r="S16" s="27"/>
       <c r="T16" s="28"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
@@ -1618,7 +1623,7 @@
       <c r="S17" s="27"/>
       <c r="T17" s="28"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
@@ -1640,7 +1645,7 @@
       <c r="S18" s="27"/>
       <c r="T18" s="28"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
@@ -1662,7 +1667,7 @@
       <c r="S19" s="27"/>
       <c r="T19" s="28"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
@@ -1684,7 +1689,7 @@
       <c r="S20" s="27"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
@@ -1706,7 +1711,7 @@
       <c r="S21" s="27"/>
       <c r="T21" s="28"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
@@ -1728,7 +1733,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="28"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="18"/>
@@ -1750,7 +1755,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="28"/>
     </row>
-    <row r="24" spans="1:20" ht="15">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="21"/>
@@ -1771,7 +1776,7 @@
       <c r="R24" s="21"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="1:20" ht="15">
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="21"/>
@@ -1792,7 +1797,7 @@
       <c r="R25" s="21"/>
       <c r="S25" s="22"/>
     </row>
-    <row r="26" spans="1:20" ht="15">
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="21"/>
@@ -1813,7 +1818,7 @@
       <c r="R26" s="21"/>
       <c r="S26" s="22"/>
     </row>
-    <row r="27" spans="1:20" ht="15">
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="21"/>
@@ -1834,7 +1839,7 @@
       <c r="R27" s="21"/>
       <c r="S27" s="22"/>
     </row>
-    <row r="28" spans="1:20" ht="15">
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="21"/>
@@ -1855,7 +1860,7 @@
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:20" ht="15">
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="21"/>
@@ -1876,7 +1881,7 @@
       <c r="R29" s="21"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="1:20" ht="15">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="21"/>
@@ -1897,7 +1902,7 @@
       <c r="R30" s="21"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:20" ht="15">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="21"/>
@@ -1918,7 +1923,7 @@
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="1:20" ht="15">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21"/>
@@ -1939,7 +1944,7 @@
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="1:19" ht="15">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -1960,7 +1965,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" ht="15">
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
@@ -1981,7 +1986,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="1:19" ht="15">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -2002,7 +2007,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:19" ht="15">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -2023,7 +2028,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:19" ht="15">
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -2044,7 +2049,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" ht="15">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -2065,7 +2070,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" ht="15">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -2086,7 +2091,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:19" ht="15">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -2107,7 +2112,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:19" ht="15">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2128,7 +2133,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" ht="15">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2149,7 +2154,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" ht="15">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2170,7 +2175,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" ht="15">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2191,7 +2196,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" ht="15">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2212,7 +2217,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" ht="15">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2233,7 +2238,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" ht="15">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2254,7 +2259,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" ht="15">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2275,7 +2280,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="15">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -2296,7 +2301,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="15">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -2317,7 +2322,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="15">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -2338,7 +2343,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="15">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2359,7 +2364,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="15">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2380,7 +2385,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="15">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2401,7 +2406,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="15">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2422,7 +2427,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="15">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2443,7 +2448,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="15">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2464,7 +2469,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="15">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2485,7 +2490,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="15">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2506,7 +2511,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="15">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2527,7 +2532,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="15">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2548,7 +2553,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="15">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2569,7 +2574,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="15">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2590,7 +2595,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="15">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2611,7 +2616,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="15">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2632,7 +2637,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="15">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2653,7 +2658,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="15">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2674,7 +2679,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="15">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2695,7 +2700,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="15">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2716,7 +2721,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="15">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2737,7 +2742,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="15">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2758,7 +2763,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="15">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2779,7 +2784,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="15">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2800,7 +2805,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="15">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2821,7 +2826,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="15">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2842,7 +2847,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="15">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -2863,7 +2868,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="15">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -2884,7 +2889,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="15">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -2905,7 +2910,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="15">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -2926,7 +2931,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="15">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -2947,7 +2952,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="15">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -2968,7 +2973,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="15">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -2989,7 +2994,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="15">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3010,7 +3015,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="15">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3031,7 +3036,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3052,7 +3057,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3073,7 +3078,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3094,7 +3099,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3115,7 +3120,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3136,7 +3141,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3157,7 +3162,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3178,7 +3183,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3199,7 +3204,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3220,7 +3225,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3241,7 +3246,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3262,7 +3267,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3283,7 +3288,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3304,7 +3309,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -3325,7 +3330,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -3346,7 +3351,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3367,7 +3372,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3388,7 +3393,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3409,7 +3414,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3430,7 +3435,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3451,7 +3456,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3472,7 +3477,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3493,7 +3498,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3514,7 +3519,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3535,7 +3540,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3556,7 +3561,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3577,7 +3582,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3598,7 +3603,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3619,7 +3624,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3640,7 +3645,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3661,7 +3666,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3682,7 +3687,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3703,7 +3708,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3724,7 +3729,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3745,7 +3750,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3766,7 +3771,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3787,7 +3792,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3808,7 +3813,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3829,7 +3834,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3850,7 +3855,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -3871,7 +3876,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -3892,7 +3897,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -3913,7 +3918,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -3934,7 +3939,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -3955,7 +3960,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -3976,7 +3981,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -3997,7 +4002,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -4018,7 +4023,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -4039,7 +4044,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -4060,7 +4065,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -4081,7 +4086,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -4102,7 +4107,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -4123,7 +4128,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -4144,7 +4149,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -4165,7 +4170,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -4186,7 +4191,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -4207,7 +4212,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -4228,7 +4233,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -4249,7 +4254,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -4270,7 +4275,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -4291,7 +4296,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -4309,7 +4314,7 @@
       <c r="O145" s="22"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -4327,7 +4332,7 @@
       <c r="O146" s="22"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4345,7 +4350,7 @@
       <c r="O147" s="22"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4363,7 +4368,7 @@
       <c r="O148" s="22"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4381,7 +4386,7 @@
       <c r="O149" s="22"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4399,7 +4404,7 @@
       <c r="O150" s="22"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4417,7 +4422,7 @@
       <c r="O151" s="22"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4435,7 +4440,7 @@
       <c r="O152" s="22"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4453,7 +4458,7 @@
       <c r="O153" s="22"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4471,7 +4476,7 @@
       <c r="O154" s="22"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4489,7 +4494,7 @@
       <c r="O155" s="22"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4507,7 +4512,7 @@
       <c r="O156" s="22"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4525,7 +4530,7 @@
       <c r="O157" s="22"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4543,7 +4548,7 @@
       <c r="O158" s="22"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4561,7 +4566,7 @@
       <c r="O159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4579,7 +4584,7 @@
       <c r="O160" s="22"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4597,7 +4602,7 @@
       <c r="O161" s="22"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4615,7 +4620,7 @@
       <c r="O162" s="22"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4633,7 +4638,7 @@
       <c r="O163" s="22"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4651,7 +4656,7 @@
       <c r="O164" s="22"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4669,7 +4674,7 @@
       <c r="O165" s="22"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4687,7 +4692,7 @@
       <c r="O166" s="22"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4705,7 +4710,7 @@
       <c r="O167" s="22"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4723,7 +4728,7 @@
       <c r="O168" s="22"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4741,7 +4746,7 @@
       <c r="O169" s="22"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4759,7 +4764,7 @@
       <c r="O170" s="22"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4777,7 +4782,7 @@
       <c r="O171" s="22"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4795,7 +4800,7 @@
       <c r="O172" s="22"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4813,7 +4818,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4831,7 +4836,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4849,7 +4854,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -4867,7 +4872,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -4885,7 +4890,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -4903,7 +4908,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -4942,18 +4947,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4989,7 +4994,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -4999,7 +5004,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5009,7 +5014,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5019,7 +5024,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5029,7 +5034,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5039,7 +5044,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5049,7 +5054,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5059,7 +5064,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5069,7 +5074,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5079,7 +5084,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5089,7 +5094,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5099,7 +5104,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5109,7 +5114,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5119,7 +5124,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5129,7 +5134,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5139,7 +5144,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5149,7 +5154,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5183,875 +5188,875 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="40" customWidth="1"/>
     <col min="3" max="3" width="7" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="40" customWidth="1"/>
     <col min="5" max="5" width="35" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="40" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="9" style="41" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29.625" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" ht="15">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+    </row>
+    <row r="3" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>31</v>
       </c>
@@ -6092,7 +6097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" ht="45">
+    <row r="4" spans="1:13" s="34" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="35">
         <v>1</v>
       </c>
@@ -6133,7 +6138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="34" customFormat="1" ht="75">
+    <row r="5" spans="1:13" s="34" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A5" s="35"/>
       <c r="B5" s="42" t="s">
         <v>28</v>
@@ -6172,7 +6177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -6187,7 +6192,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="7" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -6202,7 +6207,7 @@
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="8" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -6217,7 +6222,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="9" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6232,7 +6237,7 @@
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="10" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -6247,7 +6252,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="11" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -6262,7 +6267,7 @@
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="12" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -6277,7 +6282,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="34" customFormat="1" ht="15">
+    <row r="13" spans="1:13" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>

--- a/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_马丁组.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -311,6 +311,22 @@
   </si>
   <si>
     <t>growingIO监控调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源录入优化：付款方式，图片等级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1149,7 @@
   <dimension ref="A1:T179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M4" sqref="M4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1306,9 +1322,15 @@
       <c r="L3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42656</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1316,18 +1338,40 @@
       <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16">
+        <v>42656</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="44">
+        <v>42656</v>
+      </c>
       <c r="I4" s="15"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="J4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="M4" s="24"/>
       <c r="N4" s="16"/>
       <c r="O4" s="24"/>

--- a/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.3.2 20161013/版本Bug和特性计划及评审表v5.0.3.2_马丁组.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -327,6 +327,14 @@
   </si>
   <si>
     <t>安栋</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1157,7 @@
   <dimension ref="A1:T179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:O4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1235,7 +1243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1372,9 +1380,15 @@
       <c r="L4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="M4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42656</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
